--- a/frontend/src/tools/Antall_elever_2018_2022.xlsx
+++ b/frontend/src/tools/Antall_elever_2018_2022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IOAN\Desktop\bachelor students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95551ED9-9067-4F27-9BE6-AA7A13FD7892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 2018-22" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="144">
   <si>
     <t>Ansvar</t>
   </si>
@@ -461,7 +462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,16 +904,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC271"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+    <sheetView tabSelected="1" topLeftCell="I40" workbookViewId="0">
+      <selection activeCell="AC47" sqref="AC47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2022</v>
       </c>
@@ -1051,28 +1052,28 @@
         <v>305</v>
       </c>
       <c r="Q2" s="8">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R2" s="8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S2" s="8">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" s="8">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="V2" s="8">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W2" s="8">
-        <v>69</v>
-      </c>
-      <c r="X2" s="7">
-        <v>305</v>
+        <v>0</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0</v>
       </c>
       <c r="Y2" s="8">
         <v>0</v>
@@ -1083,14 +1084,14 @@
       <c r="AA2" s="8">
         <v>0</v>
       </c>
-      <c r="AB2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2022</v>
       </c>
@@ -1139,47 +1140,47 @@
       <c r="P3" s="12">
         <v>636</v>
       </c>
-      <c r="Q3" s="11">
-        <v>84</v>
-      </c>
-      <c r="R3" s="11">
-        <v>73</v>
-      </c>
-      <c r="S3" s="11">
-        <v>57</v>
-      </c>
-      <c r="T3" s="11">
-        <v>66</v>
-      </c>
-      <c r="U3" s="11">
-        <v>71</v>
-      </c>
-      <c r="V3" s="11">
-        <v>60</v>
-      </c>
-      <c r="W3" s="11">
-        <v>57</v>
-      </c>
-      <c r="X3" s="12">
-        <v>468</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="11">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>64</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>168</v>
-      </c>
-      <c r="AC3" s="12">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2022</v>
       </c>
@@ -1229,28 +1230,28 @@
         <v>199</v>
       </c>
       <c r="Q4" s="8">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8">
-        <v>23</v>
-      </c>
-      <c r="S4" s="13">
-        <v>25</v>
-      </c>
-      <c r="T4" s="13">
-        <v>22</v>
-      </c>
-      <c r="U4" s="13">
-        <v>33</v>
-      </c>
-      <c r="V4" s="13">
-        <v>29</v>
-      </c>
-      <c r="W4" s="14">
-        <v>28</v>
-      </c>
-      <c r="X4" s="7">
-        <v>199</v>
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0</v>
       </c>
       <c r="Y4" s="8">
         <v>0</v>
@@ -1261,14 +1262,17 @@
       <c r="AA4" s="8">
         <v>0</v>
       </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2022</v>
       </c>
@@ -1317,47 +1321,47 @@
       <c r="P5" s="12">
         <v>512</v>
       </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0</v>
-      </c>
-      <c r="U5" s="11">
-        <v>0</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0</v>
-      </c>
-      <c r="X5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>170</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>177</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>165</v>
-      </c>
-      <c r="AB5" s="12">
-        <v>512</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2022</v>
       </c>
@@ -1406,29 +1410,29 @@
       <c r="P6" s="7">
         <v>329</v>
       </c>
-      <c r="Q6" s="13">
-        <v>32</v>
+      <c r="Q6" s="8">
+        <v>0</v>
       </c>
       <c r="R6" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S6" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T6" s="8">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="U6" s="8">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="V6" s="8">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W6" s="8">
-        <v>47</v>
-      </c>
-      <c r="X6" s="7">
-        <v>329</v>
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0</v>
       </c>
       <c r="Y6" s="8">
         <v>0</v>
@@ -1439,14 +1443,14 @@
       <c r="AA6" s="8">
         <v>0</v>
       </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2022</v>
       </c>
@@ -1495,47 +1499,47 @@
       <c r="P7" s="12">
         <v>573</v>
       </c>
-      <c r="Q7" s="11">
-        <v>76</v>
-      </c>
-      <c r="R7" s="11">
-        <v>82</v>
-      </c>
-      <c r="S7" s="11">
-        <v>79</v>
-      </c>
-      <c r="T7" s="11">
-        <v>81</v>
-      </c>
-      <c r="U7" s="11">
-        <v>72</v>
-      </c>
-      <c r="V7" s="11">
-        <v>92</v>
-      </c>
-      <c r="W7" s="11">
-        <v>91</v>
-      </c>
-      <c r="X7" s="12">
-        <v>573</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2022</v>
       </c>
@@ -1584,29 +1588,29 @@
       <c r="P8" s="7">
         <v>288</v>
       </c>
-      <c r="Q8" s="13">
-        <v>30</v>
+      <c r="Q8" s="8">
+        <v>0</v>
       </c>
       <c r="R8" s="8">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="S8" s="8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T8" s="8">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="U8" s="8">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="V8" s="8">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="W8" s="8">
-        <v>43</v>
-      </c>
-      <c r="X8" s="7">
-        <v>288</v>
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0</v>
       </c>
       <c r="Y8" s="8">
         <v>0</v>
@@ -1617,14 +1621,14 @@
       <c r="AA8" s="8">
         <v>0</v>
       </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>2022</v>
       </c>
@@ -1673,47 +1677,47 @@
       <c r="P9" s="12">
         <v>553</v>
       </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
-      <c r="W9" s="11">
-        <v>0</v>
-      </c>
-      <c r="X9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>180</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>187</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>186</v>
-      </c>
-      <c r="AB9" s="12">
-        <v>553</v>
-      </c>
-      <c r="AC9" s="12">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2022</v>
       </c>
@@ -1763,28 +1767,28 @@
         <v>429</v>
       </c>
       <c r="Q10" s="8">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="R10" s="8">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="S10" s="8">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="T10" s="8">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="U10" s="8">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="V10" s="8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W10" s="8">
-        <v>60</v>
-      </c>
-      <c r="X10" s="7">
-        <v>429</v>
+        <v>0</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0</v>
       </c>
       <c r="Y10" s="8">
         <v>0</v>
@@ -1795,14 +1799,14 @@
       <c r="AA10" s="8">
         <v>0</v>
       </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AB10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>2022</v>
       </c>
@@ -1851,47 +1855,47 @@
       <c r="P11" s="12">
         <v>619</v>
       </c>
-      <c r="Q11" s="11">
-        <v>69</v>
-      </c>
-      <c r="R11" s="11">
-        <v>95</v>
-      </c>
-      <c r="S11" s="11">
-        <v>101</v>
-      </c>
-      <c r="T11" s="11">
-        <v>75</v>
-      </c>
-      <c r="U11" s="11">
-        <v>91</v>
-      </c>
-      <c r="V11" s="11">
-        <v>93</v>
-      </c>
-      <c r="W11" s="11">
-        <v>95</v>
-      </c>
-      <c r="X11" s="12">
-        <v>619</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="12">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0</v>
+      </c>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2022</v>
       </c>
@@ -1961,26 +1965,26 @@
       <c r="W12" s="8">
         <v>0</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="8">
         <v>0</v>
       </c>
       <c r="Y12" s="8">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="8">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="8">
-        <v>176</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>513</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2022</v>
       </c>
@@ -2029,47 +2033,47 @@
       <c r="P13" s="12">
         <v>395</v>
       </c>
-      <c r="Q13" s="11">
-        <v>55</v>
-      </c>
-      <c r="R13" s="11">
-        <v>67</v>
-      </c>
-      <c r="S13" s="11">
-        <v>55</v>
-      </c>
-      <c r="T13" s="11">
-        <v>56</v>
-      </c>
-      <c r="U13" s="11">
-        <v>57</v>
-      </c>
-      <c r="V13" s="11">
-        <v>56</v>
-      </c>
-      <c r="W13" s="11">
-        <v>49</v>
-      </c>
-      <c r="X13" s="12">
-        <v>395</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="12">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2022</v>
       </c>
@@ -2119,28 +2123,28 @@
         <v>541</v>
       </c>
       <c r="Q14" s="8">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="R14" s="8">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="S14" s="8">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="T14" s="8">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="U14" s="8">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="V14" s="8">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="W14" s="8">
-        <v>96</v>
-      </c>
-      <c r="X14" s="7">
-        <v>541</v>
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
       </c>
       <c r="Y14" s="8">
         <v>0</v>
@@ -2151,14 +2155,14 @@
       <c r="AA14" s="8">
         <v>0</v>
       </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2022</v>
       </c>
@@ -2207,47 +2211,47 @@
       <c r="P15" s="12">
         <v>107</v>
       </c>
-      <c r="Q15" s="15">
-        <v>19</v>
-      </c>
-      <c r="R15" s="15">
-        <v>15</v>
-      </c>
-      <c r="S15" s="15">
-        <v>8</v>
-      </c>
-      <c r="T15" s="15">
-        <v>24</v>
-      </c>
-      <c r="U15" s="15">
-        <v>11</v>
-      </c>
-      <c r="V15" s="15">
-        <v>14</v>
-      </c>
-      <c r="W15" s="15">
-        <v>16</v>
-      </c>
-      <c r="X15" s="12">
-        <v>107</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="12">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
+      <c r="X15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2022</v>
       </c>
@@ -2297,28 +2301,28 @@
         <v>323</v>
       </c>
       <c r="Q16" s="8">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="R16" s="8">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S16" s="8">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T16" s="8">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="U16" s="8">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="V16" s="8">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="W16" s="8">
-        <v>47</v>
-      </c>
-      <c r="X16" s="7">
-        <v>323</v>
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0</v>
       </c>
       <c r="Y16" s="8">
         <v>0</v>
@@ -2329,14 +2333,14 @@
       <c r="AA16" s="8">
         <v>0</v>
       </c>
-      <c r="AB16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2022</v>
       </c>
@@ -2385,47 +2389,47 @@
       <c r="P17" s="12">
         <v>482</v>
       </c>
-      <c r="Q17" s="11">
-        <v>53</v>
-      </c>
-      <c r="R17" s="11">
-        <v>74</v>
-      </c>
-      <c r="S17" s="11">
-        <v>57</v>
-      </c>
-      <c r="T17" s="11">
-        <v>79</v>
-      </c>
-      <c r="U17" s="11">
-        <v>63</v>
-      </c>
-      <c r="V17" s="11">
-        <v>76</v>
-      </c>
-      <c r="W17" s="11">
-        <v>80</v>
-      </c>
-      <c r="X17" s="12">
-        <v>482</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="12">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2022</v>
       </c>
@@ -2495,26 +2499,26 @@
       <c r="W18" s="8">
         <v>0</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="8">
         <v>0</v>
       </c>
       <c r="Y18" s="8">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="8">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="8">
-        <v>164</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>482</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2022</v>
       </c>
@@ -2563,47 +2567,47 @@
       <c r="P19" s="12">
         <v>218</v>
       </c>
-      <c r="Q19" s="16">
-        <v>35</v>
-      </c>
-      <c r="R19" s="16">
-        <v>30</v>
-      </c>
-      <c r="S19" s="11">
-        <v>38</v>
-      </c>
-      <c r="T19" s="11">
-        <v>27</v>
-      </c>
-      <c r="U19" s="11">
-        <v>26</v>
-      </c>
-      <c r="V19" s="16">
-        <v>35</v>
-      </c>
-      <c r="W19" s="16">
-        <v>27</v>
-      </c>
-      <c r="X19" s="12">
-        <v>218</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="12">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2022</v>
       </c>
@@ -2652,29 +2656,29 @@
       <c r="P20" s="7">
         <v>73</v>
       </c>
-      <c r="Q20" s="14">
-        <v>12</v>
-      </c>
-      <c r="R20" s="14">
-        <v>5</v>
-      </c>
-      <c r="S20" s="14">
-        <v>6</v>
-      </c>
-      <c r="T20" s="14">
-        <v>12</v>
-      </c>
-      <c r="U20" s="14">
-        <v>17</v>
-      </c>
-      <c r="V20" s="14">
-        <v>9</v>
-      </c>
-      <c r="W20" s="14">
-        <v>12</v>
-      </c>
-      <c r="X20" s="7">
-        <v>73</v>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0</v>
+      </c>
+      <c r="W20" s="8">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0</v>
       </c>
       <c r="Y20" s="8">
         <v>0</v>
@@ -2685,14 +2689,14 @@
       <c r="AA20" s="8">
         <v>0</v>
       </c>
-      <c r="AB20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>2022</v>
       </c>
@@ -2741,47 +2745,47 @@
       <c r="P21" s="12">
         <v>409</v>
       </c>
-      <c r="Q21" s="11">
-        <v>0</v>
-      </c>
-      <c r="R21" s="11">
-        <v>0</v>
-      </c>
-      <c r="S21" s="11">
-        <v>0</v>
-      </c>
-      <c r="T21" s="11">
-        <v>0</v>
-      </c>
-      <c r="U21" s="11">
-        <v>0</v>
-      </c>
-      <c r="V21" s="11">
-        <v>0</v>
-      </c>
-      <c r="W21" s="11">
-        <v>0</v>
-      </c>
-      <c r="X21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>146</v>
-      </c>
-      <c r="Z21" s="11">
-        <v>123</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>140</v>
-      </c>
-      <c r="AB21" s="12">
-        <v>409</v>
-      </c>
-      <c r="AC21" s="12">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0</v>
+      </c>
+      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2022</v>
       </c>
@@ -2831,28 +2835,28 @@
         <v>341</v>
       </c>
       <c r="Q22" s="8">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S22" s="8">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="T22" s="8">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="U22" s="8">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="V22" s="8">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="W22" s="8">
-        <v>51</v>
-      </c>
-      <c r="X22" s="7">
-        <v>341</v>
+        <v>0</v>
+      </c>
+      <c r="X22" s="8">
+        <v>0</v>
       </c>
       <c r="Y22" s="8">
         <v>0</v>
@@ -2863,14 +2867,14 @@
       <c r="AA22" s="8">
         <v>0</v>
       </c>
-      <c r="AB22" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="7">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>2022</v>
       </c>
@@ -2919,47 +2923,47 @@
       <c r="P23" s="12">
         <v>484</v>
       </c>
-      <c r="Q23" s="11">
-        <v>79</v>
-      </c>
-      <c r="R23" s="11">
-        <v>65</v>
-      </c>
-      <c r="S23" s="11">
-        <v>65</v>
-      </c>
-      <c r="T23" s="11">
-        <v>63</v>
-      </c>
-      <c r="U23" s="11">
-        <v>73</v>
-      </c>
-      <c r="V23" s="11">
-        <v>75</v>
-      </c>
-      <c r="W23" s="11">
-        <v>64</v>
-      </c>
-      <c r="X23" s="12">
-        <v>484</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="12">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0</v>
+      </c>
+      <c r="V23" s="8">
+        <v>0</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2022</v>
       </c>
@@ -3009,28 +3013,28 @@
         <v>341</v>
       </c>
       <c r="Q24" s="8">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="R24" s="8">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="S24" s="8">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="T24" s="8">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="U24" s="8">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="V24" s="8">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="W24" s="8">
-        <v>47</v>
-      </c>
-      <c r="X24" s="7">
-        <v>341</v>
+        <v>0</v>
+      </c>
+      <c r="X24" s="8">
+        <v>0</v>
       </c>
       <c r="Y24" s="8">
         <v>0</v>
@@ -3041,14 +3045,14 @@
       <c r="AA24" s="8">
         <v>0</v>
       </c>
-      <c r="AB24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="7">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>2022</v>
       </c>
@@ -3097,47 +3101,47 @@
       <c r="P25" s="12">
         <v>321</v>
       </c>
-      <c r="Q25" s="11">
-        <v>0</v>
-      </c>
-      <c r="R25" s="11">
-        <v>0</v>
-      </c>
-      <c r="S25" s="11">
-        <v>0</v>
-      </c>
-      <c r="T25" s="11">
-        <v>0</v>
-      </c>
-      <c r="U25" s="11">
-        <v>0</v>
-      </c>
-      <c r="V25" s="11">
-        <v>0</v>
-      </c>
-      <c r="W25" s="11">
-        <v>0</v>
-      </c>
-      <c r="X25" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>102</v>
-      </c>
-      <c r="Z25" s="11">
-        <v>109</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>110</v>
-      </c>
-      <c r="AB25" s="12">
-        <v>321</v>
-      </c>
-      <c r="AC25" s="12">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0</v>
+      </c>
+      <c r="V25" s="8">
+        <v>0</v>
+      </c>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+      <c r="X25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2022</v>
       </c>
@@ -3187,28 +3191,28 @@
         <v>490</v>
       </c>
       <c r="Q26" s="8">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="R26" s="8">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="S26" s="8">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="T26" s="8">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="U26" s="8">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="V26" s="8">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="W26" s="8">
-        <v>64</v>
-      </c>
-      <c r="X26" s="7">
-        <v>490</v>
+        <v>0</v>
+      </c>
+      <c r="X26" s="8">
+        <v>0</v>
       </c>
       <c r="Y26" s="8">
         <v>0</v>
@@ -3219,14 +3223,14 @@
       <c r="AA26" s="8">
         <v>0</v>
       </c>
-      <c r="AB26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>2022</v>
       </c>
@@ -3275,47 +3279,47 @@
       <c r="P27" s="12">
         <v>621</v>
       </c>
-      <c r="Q27" s="6">
-        <v>91</v>
-      </c>
-      <c r="R27" s="6">
-        <v>78</v>
-      </c>
-      <c r="S27" s="6">
-        <v>86</v>
-      </c>
-      <c r="T27" s="6">
-        <v>86</v>
-      </c>
-      <c r="U27" s="6">
-        <v>91</v>
-      </c>
-      <c r="V27" s="6">
-        <v>82</v>
-      </c>
-      <c r="W27" s="6">
-        <v>107</v>
-      </c>
-      <c r="X27" s="12">
-        <v>621</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="12">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0</v>
+      </c>
+      <c r="T27" s="8">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8">
+        <v>0</v>
+      </c>
+      <c r="V27" s="8">
+        <v>0</v>
+      </c>
+      <c r="W27" s="8">
+        <v>0</v>
+      </c>
+      <c r="X27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2022</v>
       </c>
@@ -3365,28 +3369,28 @@
         <v>558</v>
       </c>
       <c r="Q28" s="8">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R28" s="8">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="S28" s="8">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="T28" s="8">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="U28" s="8">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V28" s="8">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W28" s="8">
-        <v>82</v>
-      </c>
-      <c r="X28" s="7">
-        <v>558</v>
+        <v>0</v>
+      </c>
+      <c r="X28" s="8">
+        <v>0</v>
       </c>
       <c r="Y28" s="8">
         <v>0</v>
@@ -3397,14 +3401,14 @@
       <c r="AA28" s="8">
         <v>0</v>
       </c>
-      <c r="AB28" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="7">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>2022</v>
       </c>
@@ -3453,47 +3457,47 @@
       <c r="P29" s="12">
         <v>465</v>
       </c>
-      <c r="Q29" s="11">
-        <v>76</v>
-      </c>
-      <c r="R29" s="11">
-        <v>49</v>
-      </c>
-      <c r="S29" s="11">
-        <v>73</v>
-      </c>
-      <c r="T29" s="11">
-        <v>59</v>
-      </c>
-      <c r="U29" s="11">
-        <v>75</v>
-      </c>
-      <c r="V29" s="11">
-        <v>70</v>
-      </c>
-      <c r="W29" s="11">
-        <v>63</v>
-      </c>
-      <c r="X29" s="12">
-        <v>465</v>
-      </c>
-      <c r="Y29" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="12">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
+        <v>0</v>
+      </c>
+      <c r="W29" s="8">
+        <v>0</v>
+      </c>
+      <c r="X29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2022</v>
       </c>
@@ -3543,28 +3547,28 @@
         <v>451</v>
       </c>
       <c r="Q30" s="8">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="R30" s="8">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="S30" s="8">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="T30" s="8">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="U30" s="8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V30" s="8">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="W30" s="8">
-        <v>71</v>
-      </c>
-      <c r="X30" s="7">
-        <v>451</v>
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
+        <v>0</v>
       </c>
       <c r="Y30" s="8">
         <v>0</v>
@@ -3575,14 +3579,14 @@
       <c r="AA30" s="8">
         <v>0</v>
       </c>
-      <c r="AB30" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>2022</v>
       </c>
@@ -3631,47 +3635,47 @@
       <c r="P31" s="12">
         <v>340</v>
       </c>
-      <c r="Q31" s="11">
-        <v>0</v>
-      </c>
-      <c r="R31" s="11">
-        <v>0</v>
-      </c>
-      <c r="S31" s="11">
-        <v>0</v>
-      </c>
-      <c r="T31" s="11">
-        <v>0</v>
-      </c>
-      <c r="U31" s="11">
-        <v>0</v>
-      </c>
-      <c r="V31" s="11">
-        <v>0</v>
-      </c>
-      <c r="W31" s="11">
-        <v>0</v>
-      </c>
-      <c r="X31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="11">
-        <v>115</v>
-      </c>
-      <c r="Z31" s="11">
-        <v>125</v>
-      </c>
-      <c r="AA31" s="11">
-        <v>100</v>
-      </c>
-      <c r="AB31" s="12">
-        <v>340</v>
-      </c>
-      <c r="AC31" s="12">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0</v>
+      </c>
+      <c r="X31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2022</v>
       </c>
@@ -3721,28 +3725,28 @@
         <v>338</v>
       </c>
       <c r="Q32" s="8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R32" s="8">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S32" s="8">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="T32" s="8">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="U32" s="8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="V32" s="8">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="W32" s="8">
-        <v>39</v>
-      </c>
-      <c r="X32" s="7">
-        <v>338</v>
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0</v>
       </c>
       <c r="Y32" s="8">
         <v>0</v>
@@ -3753,14 +3757,14 @@
       <c r="AA32" s="8">
         <v>0</v>
       </c>
-      <c r="AB32" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="7">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>2022</v>
       </c>
@@ -3809,47 +3813,47 @@
       <c r="P33" s="12">
         <v>500</v>
       </c>
-      <c r="Q33" s="11">
-        <v>0</v>
-      </c>
-      <c r="R33" s="11">
-        <v>0</v>
-      </c>
-      <c r="S33" s="11">
-        <v>0</v>
-      </c>
-      <c r="T33" s="11">
-        <v>0</v>
-      </c>
-      <c r="U33" s="11">
-        <v>0</v>
-      </c>
-      <c r="V33" s="11">
-        <v>0</v>
-      </c>
-      <c r="W33" s="11">
-        <v>0</v>
-      </c>
-      <c r="X33" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="11">
-        <v>171</v>
-      </c>
-      <c r="Z33" s="11">
-        <v>165</v>
-      </c>
-      <c r="AA33" s="11">
-        <v>164</v>
-      </c>
-      <c r="AB33" s="12">
-        <v>500</v>
-      </c>
-      <c r="AC33" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2022</v>
       </c>
@@ -3919,26 +3923,26 @@
       <c r="W34" s="8">
         <v>0</v>
       </c>
-      <c r="X34" s="7">
+      <c r="X34" s="8">
         <v>0</v>
       </c>
       <c r="Y34" s="8">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="8">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="8">
-        <v>150</v>
-      </c>
-      <c r="AB34" s="7">
-        <v>447</v>
-      </c>
-      <c r="AC34" s="7">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>2022</v>
       </c>
@@ -3987,47 +3991,47 @@
       <c r="P35" s="12">
         <v>592</v>
       </c>
-      <c r="Q35" s="11">
-        <v>99</v>
-      </c>
-      <c r="R35" s="11">
-        <v>80</v>
-      </c>
-      <c r="S35" s="11">
-        <v>75</v>
-      </c>
-      <c r="T35" s="11">
-        <v>70</v>
-      </c>
-      <c r="U35" s="11">
-        <v>85</v>
-      </c>
-      <c r="V35" s="11">
-        <v>88</v>
-      </c>
-      <c r="W35" s="11">
-        <v>95</v>
-      </c>
-      <c r="X35" s="12">
-        <v>592</v>
-      </c>
-      <c r="Y35" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="12">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>2022</v>
       </c>
@@ -4076,29 +4080,29 @@
       <c r="P36" s="7">
         <v>272</v>
       </c>
-      <c r="Q36" s="13">
-        <v>44</v>
-      </c>
-      <c r="R36" s="13">
-        <v>32</v>
-      </c>
-      <c r="S36" s="13">
-        <v>33</v>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0</v>
       </c>
       <c r="T36" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U36" s="8">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="V36" s="8">
-        <v>42</v>
-      </c>
-      <c r="W36" s="13">
-        <v>48</v>
-      </c>
-      <c r="X36" s="7">
-        <v>272</v>
+        <v>0</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0</v>
       </c>
       <c r="Y36" s="8">
         <v>0</v>
@@ -4109,14 +4113,14 @@
       <c r="AA36" s="8">
         <v>0</v>
       </c>
-      <c r="AB36" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="7">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>2022</v>
       </c>
@@ -4165,47 +4169,47 @@
       <c r="P37" s="12">
         <v>786</v>
       </c>
-      <c r="Q37" s="11">
-        <v>70</v>
-      </c>
-      <c r="R37" s="11">
-        <v>71</v>
-      </c>
-      <c r="S37" s="11">
-        <v>74</v>
-      </c>
-      <c r="T37" s="11">
-        <v>71</v>
-      </c>
-      <c r="U37" s="11">
-        <v>94</v>
-      </c>
-      <c r="V37" s="11">
-        <v>87</v>
-      </c>
-      <c r="W37" s="11">
-        <v>73</v>
-      </c>
-      <c r="X37" s="12">
-        <v>540</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>88</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>83</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>75</v>
-      </c>
-      <c r="AB37" s="12">
-        <v>246</v>
-      </c>
-      <c r="AC37" s="12">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0</v>
+      </c>
+      <c r="T37" s="8">
+        <v>0</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0</v>
+      </c>
+      <c r="X37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2022</v>
       </c>
@@ -4240,33 +4244,47 @@
       <c r="P38" s="7">
         <v>367</v>
       </c>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="7">
+      <c r="Q38" s="8">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8">
+        <v>0</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0</v>
+      </c>
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8">
         <v>0</v>
       </c>
       <c r="Y38" s="8">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="8">
-        <v>140</v>
-      </c>
-      <c r="AB38" s="7">
-        <v>367</v>
-      </c>
-      <c r="AC38" s="7">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>2022</v>
       </c>
@@ -4315,29 +4333,29 @@
       <c r="P39" s="7">
         <v>201</v>
       </c>
-      <c r="Q39" s="13">
-        <v>32</v>
-      </c>
-      <c r="R39" s="13">
-        <v>32</v>
-      </c>
-      <c r="S39" s="13">
-        <v>32</v>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0</v>
       </c>
       <c r="T39" s="8">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="U39" s="8">
-        <v>27</v>
-      </c>
-      <c r="V39" s="13">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="V39" s="8">
+        <v>0</v>
       </c>
       <c r="W39" s="8">
-        <v>26</v>
-      </c>
-      <c r="X39" s="7">
-        <v>201</v>
+        <v>0</v>
+      </c>
+      <c r="X39" s="8">
+        <v>0</v>
       </c>
       <c r="Y39" s="8">
         <v>0</v>
@@ -4348,14 +4366,14 @@
       <c r="AA39" s="8">
         <v>0</v>
       </c>
-      <c r="AB39" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="7">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AB39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>2022</v>
       </c>
@@ -4404,47 +4422,47 @@
       <c r="P40" s="12">
         <v>510</v>
       </c>
-      <c r="Q40" s="11">
-        <v>56</v>
-      </c>
-      <c r="R40" s="11">
-        <v>70</v>
-      </c>
-      <c r="S40" s="11">
-        <v>66</v>
-      </c>
-      <c r="T40" s="11">
-        <v>89</v>
-      </c>
-      <c r="U40" s="11">
-        <v>78</v>
-      </c>
-      <c r="V40" s="11">
-        <v>64</v>
-      </c>
-      <c r="W40" s="11">
-        <v>87</v>
-      </c>
-      <c r="X40" s="12">
-        <v>510</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="12">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="S40" s="8">
+        <v>0</v>
+      </c>
+      <c r="T40" s="8">
+        <v>0</v>
+      </c>
+      <c r="U40" s="8">
+        <v>0</v>
+      </c>
+      <c r="V40" s="8">
+        <v>0</v>
+      </c>
+      <c r="W40" s="8">
+        <v>0</v>
+      </c>
+      <c r="X40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>2022</v>
       </c>
@@ -4494,28 +4512,28 @@
         <v>307</v>
       </c>
       <c r="Q41" s="8">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R41" s="8">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="S41" s="8">
-        <v>49</v>
-      </c>
-      <c r="T41" s="13">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="T41" s="8">
+        <v>0</v>
       </c>
       <c r="U41" s="8">
-        <v>52</v>
-      </c>
-      <c r="V41" s="13">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="V41" s="8">
+        <v>0</v>
       </c>
       <c r="W41" s="8">
-        <v>40</v>
-      </c>
-      <c r="X41" s="7">
-        <v>307</v>
+        <v>0</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0</v>
       </c>
       <c r="Y41" s="8">
         <v>0</v>
@@ -4526,14 +4544,14 @@
       <c r="AA41" s="8">
         <v>0</v>
       </c>
-      <c r="AB41" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="7">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>2022</v>
       </c>
@@ -4582,47 +4600,47 @@
       <c r="P42" s="12">
         <v>338</v>
       </c>
-      <c r="Q42" s="11">
-        <v>49</v>
-      </c>
-      <c r="R42" s="11">
-        <v>41</v>
-      </c>
-      <c r="S42" s="11">
-        <v>61</v>
-      </c>
-      <c r="T42" s="11">
-        <v>46</v>
-      </c>
-      <c r="U42" s="11">
-        <v>43</v>
-      </c>
-      <c r="V42" s="11">
-        <v>56</v>
-      </c>
-      <c r="W42" s="11">
-        <v>42</v>
-      </c>
-      <c r="X42" s="12">
-        <v>338</v>
-      </c>
-      <c r="Y42" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="12">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
+      </c>
+      <c r="S42" s="8">
+        <v>0</v>
+      </c>
+      <c r="T42" s="8">
+        <v>0</v>
+      </c>
+      <c r="U42" s="8">
+        <v>0</v>
+      </c>
+      <c r="V42" s="8">
+        <v>0</v>
+      </c>
+      <c r="W42" s="8">
+        <v>0</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>2022</v>
       </c>
@@ -4672,28 +4690,28 @@
         <v>360</v>
       </c>
       <c r="Q43" s="8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R43" s="8">
-        <v>52</v>
-      </c>
-      <c r="S43" s="13">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0</v>
       </c>
       <c r="T43" s="8">
-        <v>55</v>
-      </c>
-      <c r="U43" s="13">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0</v>
       </c>
       <c r="V43" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W43" s="8">
-        <v>69</v>
-      </c>
-      <c r="X43" s="7">
-        <v>360</v>
+        <v>0</v>
+      </c>
+      <c r="X43" s="8">
+        <v>0</v>
       </c>
       <c r="Y43" s="8">
         <v>0</v>
@@ -4704,14 +4722,14 @@
       <c r="AA43" s="8">
         <v>0</v>
       </c>
-      <c r="AB43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>2022</v>
       </c>
@@ -4760,47 +4778,47 @@
       <c r="P44" s="12">
         <v>188</v>
       </c>
-      <c r="Q44" s="15">
-        <v>16</v>
-      </c>
-      <c r="R44" s="16">
-        <v>27</v>
-      </c>
-      <c r="S44" s="11">
-        <v>25</v>
-      </c>
-      <c r="T44" s="11">
-        <v>23</v>
-      </c>
-      <c r="U44" s="16">
-        <v>27</v>
-      </c>
-      <c r="V44" s="16">
-        <v>40</v>
-      </c>
-      <c r="W44" s="16">
-        <v>30</v>
-      </c>
-      <c r="X44" s="12">
-        <v>188</v>
-      </c>
-      <c r="Y44" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="12">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="8">
+        <v>0</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0</v>
+      </c>
+      <c r="V44" s="8">
+        <v>0</v>
+      </c>
+      <c r="W44" s="8">
+        <v>0</v>
+      </c>
+      <c r="X44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>2022</v>
       </c>
@@ -4849,29 +4867,29 @@
       <c r="P45" s="7">
         <v>195</v>
       </c>
-      <c r="Q45" s="13">
-        <v>31</v>
+      <c r="Q45" s="8">
+        <v>0</v>
       </c>
       <c r="R45" s="8">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="S45" s="8">
-        <v>22</v>
-      </c>
-      <c r="T45" s="13">
-        <v>34</v>
-      </c>
-      <c r="U45" s="13">
-        <v>24</v>
-      </c>
-      <c r="V45" s="13">
-        <v>29</v>
-      </c>
-      <c r="W45" s="13">
-        <v>29</v>
-      </c>
-      <c r="X45" s="7">
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="T45" s="8">
+        <v>0</v>
+      </c>
+      <c r="U45" s="8">
+        <v>0</v>
+      </c>
+      <c r="V45" s="8">
+        <v>0</v>
+      </c>
+      <c r="W45" s="8">
+        <v>0</v>
+      </c>
+      <c r="X45" s="8">
+        <v>0</v>
       </c>
       <c r="Y45" s="8">
         <v>0</v>
@@ -4882,14 +4900,14 @@
       <c r="AA45" s="8">
         <v>0</v>
       </c>
-      <c r="AB45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="7">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>2022</v>
       </c>
@@ -4938,47 +4956,47 @@
       <c r="P46" s="12">
         <v>422</v>
       </c>
-      <c r="Q46" s="16">
-        <v>28</v>
-      </c>
-      <c r="R46" s="15">
-        <v>28</v>
-      </c>
-      <c r="S46" s="11">
-        <v>20</v>
-      </c>
-      <c r="T46" s="11">
-        <v>18</v>
-      </c>
-      <c r="U46" s="11">
-        <v>23</v>
-      </c>
-      <c r="V46" s="16">
-        <v>30</v>
-      </c>
-      <c r="W46" s="16">
-        <v>31</v>
-      </c>
-      <c r="X46" s="12">
-        <v>178</v>
-      </c>
-      <c r="Y46" s="11">
-        <v>83</v>
-      </c>
-      <c r="Z46" s="11">
-        <v>71</v>
-      </c>
-      <c r="AA46" s="11">
-        <v>84</v>
-      </c>
-      <c r="AB46" s="12">
-        <v>238</v>
-      </c>
-      <c r="AC46" s="12">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8">
+        <v>0</v>
+      </c>
+      <c r="S46" s="8">
+        <v>0</v>
+      </c>
+      <c r="T46" s="8">
+        <v>0</v>
+      </c>
+      <c r="U46" s="8">
+        <v>0</v>
+      </c>
+      <c r="V46" s="8">
+        <v>0</v>
+      </c>
+      <c r="W46" s="8">
+        <v>0</v>
+      </c>
+      <c r="X46" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>2022</v>
       </c>
@@ -5028,28 +5046,28 @@
         <v>130</v>
       </c>
       <c r="Q47" s="8">
-        <v>28</v>
-      </c>
-      <c r="R47" s="14">
-        <v>16</v>
-      </c>
-      <c r="S47" s="14">
-        <v>21</v>
-      </c>
-      <c r="T47" s="14">
-        <v>17</v>
-      </c>
-      <c r="U47" s="14">
-        <v>17</v>
-      </c>
-      <c r="V47" s="14">
-        <v>17</v>
-      </c>
-      <c r="W47" s="14">
-        <v>14</v>
-      </c>
-      <c r="X47" s="7">
-        <v>130</v>
+        <v>0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0</v>
+      </c>
+      <c r="S47" s="8">
+        <v>0</v>
+      </c>
+      <c r="T47" s="8">
+        <v>0</v>
+      </c>
+      <c r="U47" s="8">
+        <v>0</v>
+      </c>
+      <c r="V47" s="8">
+        <v>0</v>
+      </c>
+      <c r="W47" s="8">
+        <v>0</v>
+      </c>
+      <c r="X47" s="8">
+        <v>0</v>
       </c>
       <c r="Y47" s="8">
         <v>0</v>
@@ -5060,14 +5078,14 @@
       <c r="AA47" s="8">
         <v>0</v>
       </c>
-      <c r="AB47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>2022</v>
       </c>
@@ -5116,47 +5134,47 @@
       <c r="P48" s="12">
         <v>493</v>
       </c>
-      <c r="Q48" s="16">
-        <v>35</v>
-      </c>
-      <c r="R48" s="11">
-        <v>47</v>
-      </c>
-      <c r="S48" s="11">
-        <v>38</v>
-      </c>
-      <c r="T48" s="11">
-        <v>60</v>
-      </c>
-      <c r="U48" s="16">
-        <v>35</v>
-      </c>
-      <c r="V48" s="11">
-        <v>37</v>
-      </c>
-      <c r="W48" s="11">
-        <v>46</v>
-      </c>
-      <c r="X48" s="12">
-        <v>298</v>
-      </c>
-      <c r="Y48" s="11">
-        <v>68</v>
-      </c>
-      <c r="Z48" s="11">
-        <v>62</v>
-      </c>
-      <c r="AA48" s="11">
-        <v>65</v>
-      </c>
-      <c r="AB48" s="12">
-        <v>195</v>
-      </c>
-      <c r="AC48" s="12">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0</v>
+      </c>
+      <c r="S48" s="8">
+        <v>0</v>
+      </c>
+      <c r="T48" s="8">
+        <v>0</v>
+      </c>
+      <c r="U48" s="8">
+        <v>0</v>
+      </c>
+      <c r="V48" s="8">
+        <v>0</v>
+      </c>
+      <c r="W48" s="8">
+        <v>0</v>
+      </c>
+      <c r="X48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>2022</v>
       </c>
@@ -5205,47 +5223,47 @@
       <c r="P49" s="7">
         <v>307</v>
       </c>
-      <c r="Q49" s="14">
-        <v>23</v>
-      </c>
-      <c r="R49" s="14">
-        <v>13</v>
-      </c>
-      <c r="S49" s="14">
-        <v>16</v>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0</v>
+      </c>
+      <c r="S49" s="8">
+        <v>0</v>
       </c>
       <c r="T49" s="8">
-        <v>21</v>
-      </c>
-      <c r="U49" s="14">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="U49" s="8">
+        <v>0</v>
       </c>
       <c r="V49" s="8">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="W49" s="8">
-        <v>23</v>
-      </c>
-      <c r="X49" s="7">
-        <v>135</v>
+        <v>0</v>
+      </c>
+      <c r="X49" s="8">
+        <v>0</v>
       </c>
       <c r="Y49" s="8">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="8">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="8">
-        <v>43</v>
-      </c>
-      <c r="AB49" s="7">
-        <v>172</v>
-      </c>
-      <c r="AC49" s="7">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>2022</v>
       </c>
@@ -5294,47 +5312,47 @@
       <c r="P50" s="12">
         <v>313</v>
       </c>
-      <c r="Q50" s="11">
-        <v>48</v>
-      </c>
-      <c r="R50" s="11">
-        <v>40</v>
-      </c>
-      <c r="S50" s="11">
-        <v>53</v>
-      </c>
-      <c r="T50" s="11">
-        <v>41</v>
-      </c>
-      <c r="U50" s="11">
-        <v>44</v>
-      </c>
-      <c r="V50" s="11">
-        <v>39</v>
-      </c>
-      <c r="W50" s="11">
-        <v>48</v>
-      </c>
-      <c r="X50" s="12">
-        <v>313</v>
-      </c>
-      <c r="Y50" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="12">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0</v>
+      </c>
+      <c r="S50" s="8">
+        <v>0</v>
+      </c>
+      <c r="T50" s="8">
+        <v>0</v>
+      </c>
+      <c r="U50" s="8">
+        <v>0</v>
+      </c>
+      <c r="V50" s="8">
+        <v>0</v>
+      </c>
+      <c r="W50" s="8">
+        <v>0</v>
+      </c>
+      <c r="X50" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>2022</v>
       </c>
@@ -5384,46 +5402,46 @@
         <v>480</v>
       </c>
       <c r="Q51" s="8">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="R51" s="8">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="S51" s="8">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="T51" s="8">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="U51" s="8">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="V51" s="8">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="W51" s="8">
-        <v>44</v>
-      </c>
-      <c r="X51" s="7">
-        <v>355</v>
+        <v>0</v>
+      </c>
+      <c r="X51" s="8">
+        <v>0</v>
       </c>
       <c r="Y51" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="8">
-        <v>37</v>
-      </c>
-      <c r="AB51" s="7">
-        <v>125</v>
-      </c>
-      <c r="AC51" s="7">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>2022</v>
       </c>
@@ -5472,47 +5490,47 @@
       <c r="P52" s="12">
         <v>362</v>
       </c>
-      <c r="Q52" s="11">
-        <v>38</v>
-      </c>
-      <c r="R52" s="11">
-        <v>53</v>
-      </c>
-      <c r="S52" s="11">
-        <v>40</v>
-      </c>
-      <c r="T52" s="11">
-        <v>48</v>
-      </c>
-      <c r="U52" s="11">
-        <v>50</v>
-      </c>
-      <c r="V52" s="11">
-        <v>69</v>
-      </c>
-      <c r="W52" s="11">
-        <v>64</v>
-      </c>
-      <c r="X52" s="12">
-        <v>362</v>
-      </c>
-      <c r="Y52" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="12">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0</v>
+      </c>
+      <c r="S52" s="8">
+        <v>0</v>
+      </c>
+      <c r="T52" s="8">
+        <v>0</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0</v>
+      </c>
+      <c r="V52" s="8">
+        <v>0</v>
+      </c>
+      <c r="W52" s="8">
+        <v>0</v>
+      </c>
+      <c r="X52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>2022</v>
       </c>
@@ -5582,26 +5600,26 @@
       <c r="W53" s="8">
         <v>0</v>
       </c>
-      <c r="X53" s="7">
+      <c r="X53" s="8">
         <v>0</v>
       </c>
       <c r="Y53" s="8">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="8">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="8">
-        <v>136</v>
-      </c>
-      <c r="AB53" s="7">
-        <v>427</v>
-      </c>
-      <c r="AC53" s="7">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>2022</v>
       </c>
@@ -5636,33 +5654,47 @@
       <c r="P54" s="12">
         <v>271</v>
       </c>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="11">
-        <v>87</v>
-      </c>
-      <c r="Z54" s="11">
-        <v>90</v>
-      </c>
-      <c r="AA54" s="11">
-        <v>94</v>
-      </c>
-      <c r="AB54" s="12">
-        <v>271</v>
-      </c>
-      <c r="AC54" s="12">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="8">
+        <v>0</v>
+      </c>
+      <c r="S54" s="8">
+        <v>0</v>
+      </c>
+      <c r="T54" s="8">
+        <v>0</v>
+      </c>
+      <c r="U54" s="8">
+        <v>0</v>
+      </c>
+      <c r="V54" s="8">
+        <v>0</v>
+      </c>
+      <c r="W54" s="8">
+        <v>0</v>
+      </c>
+      <c r="X54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>2022</v>
       </c>
@@ -5706,40 +5738,46 @@
         <v>402</v>
       </c>
       <c r="Q55" s="8">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="R55" s="8">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="S55" s="8">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="T55" s="8">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="U55" s="8">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="V55" s="8">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="W55" s="8">
-        <v>55</v>
-      </c>
-      <c r="X55" s="7">
-        <v>402</v>
-      </c>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="8">
+        <v>0</v>
+      </c>
       <c r="AB55" s="8">
         <v>0</v>
       </c>
-      <c r="AC55" s="7">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>2022</v>
       </c>
@@ -5782,41 +5820,47 @@
       <c r="P56" s="12">
         <v>207</v>
       </c>
-      <c r="Q56" s="11">
-        <v>20</v>
-      </c>
-      <c r="R56" s="11">
-        <v>28</v>
-      </c>
-      <c r="S56" s="11">
-        <v>24</v>
-      </c>
-      <c r="T56" s="11">
-        <v>27</v>
-      </c>
-      <c r="U56" s="11">
-        <v>37</v>
-      </c>
-      <c r="V56" s="11">
-        <v>37</v>
-      </c>
-      <c r="W56" s="16">
-        <v>34</v>
-      </c>
-      <c r="X56" s="12">
-        <v>207</v>
-      </c>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC56" s="12">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="8">
+        <v>0</v>
+      </c>
+      <c r="S56" s="8">
+        <v>0</v>
+      </c>
+      <c r="T56" s="8">
+        <v>0</v>
+      </c>
+      <c r="U56" s="8">
+        <v>0</v>
+      </c>
+      <c r="V56" s="8">
+        <v>0</v>
+      </c>
+      <c r="W56" s="8">
+        <v>0</v>
+      </c>
+      <c r="X56" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>2021</v>
       </c>
@@ -5905,7 +5949,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>2021</v>
       </c>
@@ -5994,7 +6038,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>2021</v>
       </c>
@@ -6083,7 +6127,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>2021</v>
       </c>
@@ -6172,7 +6216,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>2021</v>
       </c>
@@ -6261,7 +6305,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>2021</v>
       </c>
@@ -6350,7 +6394,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>2021</v>
       </c>
@@ -6439,7 +6483,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>2021</v>
       </c>
@@ -6528,7 +6572,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>2021</v>
       </c>
@@ -6617,7 +6661,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>2021</v>
       </c>
@@ -6706,7 +6750,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2021</v>
       </c>
@@ -6795,7 +6839,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>2021</v>
       </c>
@@ -6884,7 +6928,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>2021</v>
       </c>
@@ -6973,7 +7017,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>2021</v>
       </c>
@@ -7062,7 +7106,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>2021</v>
       </c>
@@ -7151,7 +7195,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>2021</v>
       </c>
@@ -7240,7 +7284,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>2021</v>
       </c>
@@ -7329,7 +7373,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>2021</v>
       </c>
@@ -7418,7 +7462,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>2021</v>
       </c>
@@ -7507,7 +7551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>2021</v>
       </c>
@@ -7596,7 +7640,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>2021</v>
       </c>
@@ -7685,7 +7729,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>2021</v>
       </c>
@@ -7774,7 +7818,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>2021</v>
       </c>
@@ -7863,7 +7907,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>2021</v>
       </c>
@@ -7952,7 +7996,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>2021</v>
       </c>
@@ -8041,7 +8085,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>2021</v>
       </c>
@@ -8130,7 +8174,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>2021</v>
       </c>
@@ -8219,7 +8263,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>2021</v>
       </c>
@@ -8308,7 +8352,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2021</v>
       </c>
@@ -8397,7 +8441,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>2021</v>
       </c>
@@ -8486,7 +8530,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>2021</v>
       </c>
@@ -8575,7 +8619,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>2021</v>
       </c>
@@ -8664,7 +8708,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>2021</v>
       </c>
@@ -8753,7 +8797,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>2021</v>
       </c>
@@ -8842,7 +8886,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>2021</v>
       </c>
@@ -8931,7 +8975,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>2021</v>
       </c>
@@ -9020,7 +9064,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2021</v>
       </c>
@@ -9081,7 +9125,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>2021</v>
       </c>
@@ -9170,7 +9214,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>2021</v>
       </c>
@@ -9259,7 +9303,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>2021</v>
       </c>
@@ -9348,7 +9392,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>2021</v>
       </c>
@@ -9437,7 +9481,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>2021</v>
       </c>
@@ -9526,7 +9570,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>2021</v>
       </c>
@@ -9615,7 +9659,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>2021</v>
       </c>
@@ -9704,7 +9748,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>2021</v>
       </c>
@@ -9793,7 +9837,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>2021</v>
       </c>
@@ -9882,7 +9926,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>2021</v>
       </c>
@@ -9971,7 +10015,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>2021</v>
       </c>
@@ -10060,7 +10104,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>2021</v>
       </c>
@@ -10149,7 +10193,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2021</v>
       </c>
@@ -10238,7 +10282,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>2021</v>
       </c>
@@ -10327,7 +10371,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>2021</v>
       </c>
@@ -10416,7 +10460,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>2021</v>
       </c>
@@ -10477,7 +10521,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>2021</v>
       </c>
@@ -10554,7 +10598,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>2021</v>
       </c>
@@ -10631,7 +10675,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>2020</v>
       </c>
@@ -10720,7 +10764,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>2020</v>
       </c>
@@ -10809,7 +10853,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>2020</v>
       </c>
@@ -10898,7 +10942,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>2020</v>
       </c>
@@ -10987,7 +11031,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>2020</v>
       </c>
@@ -11076,7 +11120,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>2020</v>
       </c>
@@ -11165,7 +11209,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>2020</v>
       </c>
@@ -11254,7 +11298,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>2020</v>
       </c>
@@ -11343,7 +11387,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>2020</v>
       </c>
@@ -11432,7 +11476,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>2020</v>
       </c>
@@ -11521,7 +11565,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>2020</v>
       </c>
@@ -11610,7 +11654,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>2020</v>
       </c>
@@ -11699,7 +11743,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>2020</v>
       </c>
@@ -11788,7 +11832,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>2020</v>
       </c>
@@ -11877,7 +11921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>2020</v>
       </c>
@@ -11966,7 +12010,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>2020</v>
       </c>
@@ -12055,7 +12099,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>2020</v>
       </c>
@@ -12144,7 +12188,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>2020</v>
       </c>
@@ -12233,7 +12277,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>2020</v>
       </c>
@@ -12322,7 +12366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>2020</v>
       </c>
@@ -12411,7 +12455,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>2020</v>
       </c>
@@ -12500,7 +12544,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>2020</v>
       </c>
@@ -12589,7 +12633,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>2020</v>
       </c>
@@ -12678,7 +12722,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
         <v>2020</v>
       </c>
@@ -12767,7 +12811,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>2020</v>
       </c>
@@ -12856,7 +12900,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="10">
         <v>2020</v>
       </c>
@@ -12945,7 +12989,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>2020</v>
       </c>
@@ -13034,7 +13078,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>2020</v>
       </c>
@@ -13123,7 +13167,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>2020</v>
       </c>
@@ -13212,7 +13256,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
         <v>2020</v>
       </c>
@@ -13301,7 +13345,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>2020</v>
       </c>
@@ -13390,7 +13434,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
         <v>2020</v>
       </c>
@@ -13479,7 +13523,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>2020</v>
       </c>
@@ -13568,7 +13612,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
         <v>2020</v>
       </c>
@@ -13657,7 +13701,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>2020</v>
       </c>
@@ -13746,7 +13790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
         <v>2020</v>
       </c>
@@ -13835,7 +13879,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>2020</v>
       </c>
@@ -13896,7 +13940,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>2020</v>
       </c>
@@ -13985,7 +14029,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>2020</v>
       </c>
@@ -14074,7 +14118,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2020</v>
       </c>
@@ -14163,7 +14207,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>2020</v>
       </c>
@@ -14252,7 +14296,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>2020</v>
       </c>
@@ -14341,7 +14385,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>2020</v>
       </c>
@@ -14430,7 +14474,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>2020</v>
       </c>
@@ -14519,7 +14563,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>2020</v>
       </c>
@@ -14608,7 +14652,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>2020</v>
       </c>
@@ -14697,7 +14741,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
         <v>2020</v>
       </c>
@@ -14786,7 +14830,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>2020</v>
       </c>
@@ -14875,7 +14919,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>2020</v>
       </c>
@@ -14964,7 +15008,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>2020</v>
       </c>
@@ -15053,7 +15097,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
         <v>2020</v>
       </c>
@@ -15142,7 +15186,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>2020</v>
       </c>
@@ -15231,7 +15275,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
         <v>2020</v>
       </c>
@@ -15292,7 +15336,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>2020</v>
       </c>
@@ -15369,7 +15413,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>2020</v>
       </c>
@@ -15446,7 +15490,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>2019</v>
       </c>
@@ -15533,7 +15577,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="10">
         <v>2019</v>
       </c>
@@ -15622,7 +15666,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>2019</v>
       </c>
@@ -15709,7 +15753,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
         <v>2019</v>
       </c>
@@ -15798,7 +15842,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>2019</v>
       </c>
@@ -15885,7 +15929,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
         <v>2019</v>
       </c>
@@ -15972,7 +16016,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>2019</v>
       </c>
@@ -16059,7 +16103,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
         <v>2019</v>
       </c>
@@ -16148,7 +16192,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>2019</v>
       </c>
@@ -16235,7 +16279,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
         <v>2019</v>
       </c>
@@ -16322,7 +16366,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>2019</v>
       </c>
@@ -16411,7 +16455,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
         <v>2019</v>
       </c>
@@ -16498,7 +16542,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>2019</v>
       </c>
@@ -16585,7 +16629,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
         <v>2019</v>
       </c>
@@ -16672,7 +16716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>2019</v>
       </c>
@@ -16759,7 +16803,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
         <v>2019</v>
       </c>
@@ -16846,7 +16890,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>2019</v>
       </c>
@@ -16935,7 +16979,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
         <v>2019</v>
       </c>
@@ -17022,7 +17066,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>2019</v>
       </c>
@@ -17109,7 +17153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
         <v>2019</v>
       </c>
@@ -17198,7 +17242,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>2019</v>
       </c>
@@ -17285,7 +17329,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" s="10">
         <v>2019</v>
       </c>
@@ -17372,7 +17416,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>2019</v>
       </c>
@@ -17459,7 +17503,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>2019</v>
       </c>
@@ -17548,7 +17592,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>2019</v>
       </c>
@@ -17635,7 +17679,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
         <v>2019</v>
       </c>
@@ -17722,7 +17766,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>2019</v>
       </c>
@@ -17809,7 +17853,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
         <v>2019</v>
       </c>
@@ -17896,7 +17940,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>2019</v>
       </c>
@@ -17983,7 +18027,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
         <v>2019</v>
       </c>
@@ -18072,7 +18116,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>2019</v>
       </c>
@@ -18159,7 +18203,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="10">
         <v>2019</v>
       </c>
@@ -18248,7 +18292,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>2019</v>
       </c>
@@ -18337,7 +18381,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200" s="10">
         <v>2019</v>
       </c>
@@ -18414,7 +18458,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>2019</v>
       </c>
@@ -18501,7 +18545,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202" s="10">
         <v>2019</v>
       </c>
@@ -18590,7 +18634,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>2019</v>
       </c>
@@ -18651,7 +18695,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>2019</v>
       </c>
@@ -18738,7 +18782,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>2019</v>
       </c>
@@ -18825,7 +18869,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>2019</v>
       </c>
@@ -18912,7 +18956,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" s="10">
         <v>2019</v>
       </c>
@@ -18999,7 +19043,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>2019</v>
       </c>
@@ -19086,7 +19130,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209" s="10">
         <v>2019</v>
       </c>
@@ -19173,7 +19217,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>2019</v>
       </c>
@@ -19260,7 +19304,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211" s="10">
         <v>2019</v>
       </c>
@@ -19349,7 +19393,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>2019</v>
       </c>
@@ -19436,7 +19480,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213" s="10">
         <v>2019</v>
       </c>
@@ -19525,7 +19569,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>2019</v>
       </c>
@@ -19614,7 +19658,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10">
         <v>2019</v>
       </c>
@@ -19703,7 +19747,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>2019</v>
       </c>
@@ -19792,7 +19836,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>2019</v>
       </c>
@@ -19879,7 +19923,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>2019</v>
       </c>
@@ -19968,7 +20012,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>2018</v>
       </c>
@@ -20045,7 +20089,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>2018</v>
       </c>
@@ -20134,7 +20178,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>2018</v>
       </c>
@@ -20211,7 +20255,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
         <v>2018</v>
       </c>
@@ -20272,7 +20316,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>2018</v>
       </c>
@@ -20349,7 +20393,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224" s="10">
         <v>2018</v>
       </c>
@@ -20426,7 +20470,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>2018</v>
       </c>
@@ -20503,7 +20547,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>2018</v>
       </c>
@@ -20564,7 +20608,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>2018</v>
       </c>
@@ -20641,7 +20685,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10">
         <v>2018</v>
       </c>
@@ -20718,7 +20762,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>2018</v>
       </c>
@@ -20779,7 +20823,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230" s="10">
         <v>2018</v>
       </c>
@@ -20856,7 +20900,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>2018</v>
       </c>
@@ -20933,7 +20977,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" s="10">
         <v>2018</v>
       </c>
@@ -21010,7 +21054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>2018</v>
       </c>
@@ -21087,7 +21131,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234" s="10">
         <v>2018</v>
       </c>
@@ -21164,7 +21208,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>2018</v>
       </c>
@@ -21225,7 +21269,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236" s="10">
         <v>2018</v>
       </c>
@@ -21302,7 +21346,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>2018</v>
       </c>
@@ -21379,7 +21423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238" s="10">
         <v>2018</v>
       </c>
@@ -21440,7 +21484,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>2018</v>
       </c>
@@ -21517,7 +21561,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240" s="10">
         <v>2018</v>
       </c>
@@ -21594,7 +21638,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>2018</v>
       </c>
@@ -21671,7 +21715,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242" s="10">
         <v>2018</v>
       </c>
@@ -21732,7 +21776,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>2018</v>
       </c>
@@ -21809,7 +21853,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244" s="10">
         <v>2018</v>
       </c>
@@ -21886,7 +21930,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>2018</v>
       </c>
@@ -21963,7 +22007,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246" s="10">
         <v>2018</v>
       </c>
@@ -22040,7 +22084,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>2018</v>
       </c>
@@ -22117,7 +22161,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248" s="10">
         <v>2018</v>
       </c>
@@ -22178,7 +22222,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>2018</v>
       </c>
@@ -22255,7 +22299,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="10">
         <v>2018</v>
       </c>
@@ -22316,7 +22360,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>2018</v>
       </c>
@@ -22377,7 +22421,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252" s="10">
         <v>2018</v>
       </c>
@@ -22454,7 +22498,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>2018</v>
       </c>
@@ -22531,7 +22575,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" s="10">
         <v>2018</v>
       </c>
@@ -22620,7 +22664,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>2018</v>
       </c>
@@ -22681,7 +22725,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256" s="10">
         <v>2018</v>
       </c>
@@ -22758,7 +22802,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>2018</v>
       </c>
@@ -22835,7 +22879,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" s="10">
         <v>2018</v>
       </c>
@@ -22912,7 +22956,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>2018</v>
       </c>
@@ -22989,7 +23033,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" s="10">
         <v>2018</v>
       </c>
@@ -23066,7 +23110,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>2018</v>
       </c>
@@ -23143,7 +23187,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262" s="10">
         <v>2018</v>
       </c>
@@ -23220,7 +23264,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>2018</v>
       </c>
@@ -23285,7 +23329,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264" s="10">
         <v>2018</v>
       </c>
@@ -23374,7 +23418,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>2018</v>
       </c>
@@ -23451,7 +23495,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266" s="10">
         <v>2018</v>
       </c>
@@ -23540,7 +23584,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>2018</v>
       </c>
@@ -23629,7 +23673,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="268" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10">
         <v>2018</v>
       </c>
@@ -23718,7 +23762,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>2018</v>
       </c>
@@ -23807,7 +23851,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270" s="10">
         <v>2018</v>
       </c>
@@ -23884,7 +23928,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>2018</v>
       </c>
